--- a/app/static/temp/prediction_result.xlsx
+++ b/app/static/temp/prediction_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>asal_sma</t>
+          <t>nama_sma</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,410 +456,127 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>toefl</t>
+          <t>prodi</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>prodi</t>
+          <t>jalur</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>jalur_masuk</t>
+          <t>ip_semester_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>jenis_kelamin</t>
+          <t>ip_semester_2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ip_semester_1</t>
+          <t>ip_semester_3</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ip_semester_2</t>
+          <t>ip_semester_4</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ip_semester_3</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_4</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_5</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_6</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_7</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_8</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_9</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_10</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_11</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_12</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_13</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>ip_semester_14</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1234</v>
+        <v>123</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hesoyam</t>
+          <t>fulan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SMAN 1 IKN</t>
+          <t>SMA Santa Maria Tarutung</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>550</v>
+        <v>500000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Teknik Elektro</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Informatika</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>PMDK</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Laki-Laki</t>
-        </is>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Tepat waktu</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1234</v>
+        <v>321</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hesoyam</t>
+          <t>hesoyAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SMAN 1 IKN</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sdfssd</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>550</v>
+          <t>SMA Negeri 1 Balige</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Teknik Bioproses</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Informatika</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PMDK</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Laki-Laki</t>
-        </is>
+          <t>UTBK</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1 validation error for PredictionRequest
-penghasilan_orang_tua
-  Input should be a valid integer, unable to parse string as an integer [type=int_parsing, input_value='sdfssd', input_type=str]
-    For further information visit https://errors.pydantic.dev/2.8/v/int_parsing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3456</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>uzumymw</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SMAN 3 IKN</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>scs</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>dscsd</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>USM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Laki-Laki</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2 validation errors for PredictionRequest
-toefl
-  Input should be a valid integer, unable to parse string as an integer [type=int_parsing, input_value='scs', input_type=str]
-    For further information visit https://errors.pydantic.dev/2.8/v/int_parsing
-prodi
-  Value error, Invalid program. Valid programs are: Teknologi Informasi, Sarjana Terapan Teknologi Rekayasa Perangkat Lunak, Informatika, Sistem Informasi, Teknologi Komputer, Teknik Elektro, Manajemen Rekayasa, Teknik Bioproses [type=value_error, input_value='dscsd', input_type=str]
-    For further information visit https://errors.pydantic.dev/2.8/v/value_error</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4567</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>jcnruad</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SMAN 4 IKN</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>500</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Teknologi Informasi</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>UTBK</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>wewe</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1 validation error for PredictionRequest
-jenis_kelamin
-  Value error, Invalid gender. Valid genders are: Laki-Laki, Perempuan [type=value_error, input_value='wewe', input_type=str]
-    For further information visit https://errors.pydantic.dev/2.8/v/value_error</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tepat waktu</t>
         </is>
       </c>
     </row>

--- a/app/static/temp/prediction_result.xlsx
+++ b/app/static/temp/prediction_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,42 +492,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>12345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fulan</t>
+          <t>Hesoyam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SMA Santa Maria Tarutung</t>
+          <t>SMK Negeri 1 Siatasbarita</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Teknik Elektro</t>
+          <t>Teknologi Komputer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PMDK</t>
+          <t>UTBK</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,46 +537,91 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>321</v>
+        <v>23456</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hesoyAM</t>
+          <t>Aezakmi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SMA Negeri 1 Balige</t>
+          <t>SMA Negri 1 Sidamanik</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Manajemen Rekayasa</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PMDK</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Tepat waktu</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34567</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uzumymw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SMAN 4 BINJAI</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Teknik Bioproses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>UTBK</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Tepat waktu</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>USM3</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tidak tepat waktu</t>
         </is>
       </c>
     </row>
